--- a/lab6/TestPlan.xlsx
+++ b/lab6/TestPlan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd7373182837aa7/Документы/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\TIOPO\srgsgr\tiopo\lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{B2F5867C-8D7C-4AC5-AC97-A7B942D95A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56CBCEAD-0D8A-4FD6-8C0F-3CAC97D0569B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62E9BD62-E8FE-4D48-BD26-45F48728253E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тест план" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Тестирование безопасности" sheetId="3" r:id="rId3"/>
     <sheet name="Нагрузочное тестирование" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>Date Begin:</t>
   </si>
@@ -343,12 +342,15 @@
   <si>
     <t xml:space="preserve">Выбрать любой доступный слайд активным
 </t>
+  </si>
+  <si>
+    <t>Создать презентацию  или выбрать уже существующую и доступную для редактирования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -808,164 +810,164 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255D676-7D8C-4BE7-9CA5-7A492521CEAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1307,36 +1309,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1345,16 +1347,16 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1363,130 +1365,130 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="38"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9" t="s">
         <v>56</v>
       </c>
@@ -1495,14 +1497,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="9" t="s">
         <v>48</v>
       </c>
@@ -1511,14 +1513,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="9" t="s">
         <v>49</v>
       </c>
@@ -1527,14 +1529,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
@@ -1543,10 +1545,10 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="11" t="s">
         <v>52</v>
       </c>
@@ -1555,85 +1557,49 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="3:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="3:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="C23:D23"/>
@@ -1645,10 +1611,46 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" tooltip="Post-it note" display="https://en.wikipedia.org/wiki/Post-it_note" xr:uid="{CDBAFB46-FB49-4606-AB16-3559C0D6773A}"/>
+    <hyperlink ref="D1" r:id="rId1" tooltip="Post-it note" display="https://en.wikipedia.org/wiki/Post-it_note"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1656,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2C479-578D-4009-8440-128FC65DD20D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1693,20 +1695,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1714,33 +1716,33 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1751,10 +1753,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4596B7-5259-40A4-9D9B-FEEB8BFEBD39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1795,10 +1797,10 @@
       <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1809,13 +1811,13 @@
       <c r="B3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1823,16 +1825,16 @@
       <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1842,10 +1844,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A469F-6B22-4AC5-8428-410CA5183AFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15:D19"/>
     </sheetView>
   </sheetViews>
@@ -1886,10 +1888,10 @@
       <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="15" t="s">
         <v>98</v>
       </c>
     </row>
